--- a/data/trans_bre/P5B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Habitat-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental mala o muy mala en la zona de residencia</t>
+          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,1</t>
+          <t>-2,63; 3,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,0</t>
+          <t>-3,17; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,0</t>
+          <t>-4,08; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,84</t>
+          <t>-0,97; 2,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,0</t>
+          <t>-0,19; 1,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,29</t>
+          <t>-2,34; 0,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,5</t>
+          <t>-0,53; 0,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 194,48</t>
+          <t>-33,63; 181,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 101,48</t>
+          <t>-100,0; 78,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,86</t>
+          <t>0,47; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,21</t>
+          <t>-0,34; 2,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,62</t>
+          <t>-0,54; 1,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,86</t>
+          <t>-0,43; 0,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,47; 220,98</t>
+          <t>11,87; 216,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 203,39</t>
+          <t>-18,97; 218,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,47; 255,16</t>
+          <t>-35,7; 239,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,24; 484,08</t>
+          <t>-62,07; 492,72</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,59</t>
+          <t>-0,38; 3,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,26</t>
+          <t>-2,5; 0,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,4</t>
+          <t>0,03; 3,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,35</t>
+          <t>-1,04; 0,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 240,05</t>
+          <t>-13,69; 262,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-80,86; 26,12</t>
+          <t>-81,38; 48,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 345,05</t>
+          <t>-3,19; 340,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-91,41; 437,86</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,97</t>
+          <t>-0,05; 4,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,83</t>
+          <t>-1,94; 0,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,58</t>
+          <t>-0,02; 2,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,73</t>
+          <t>-1,2; 1,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 110,08</t>
+          <t>-1,5; 113,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-59,1; 51,37</t>
+          <t>-60,59; 50,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 282,17</t>
+          <t>-7,6; 322,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,29; 81,17</t>
+          <t>-31,79; 85,58</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,62</t>
+          <t>0,77; 2,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,61</t>
+          <t>-0,7; 0,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,39</t>
+          <t>0,12; 1,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,6</t>
+          <t>-0,35; 0,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,25; 101,58</t>
+          <t>21,47; 101,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 47,75</t>
+          <t>-33,95; 49,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,54; 127,53</t>
+          <t>4,46; 129,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 68,6</t>
+          <t>-24,23; 83,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,01</t>
+          <t>-2,1; 2,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,0</t>
+          <t>-3,85; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,0</t>
+          <t>-3,72; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,82</t>
+          <t>-0,85; 2,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,0</t>
+          <t>-0,18; 1,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,24</t>
+          <t>-2,58; 0,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 181,87</t>
+          <t>-28,84; 202,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 78,57</t>
+          <t>-100,0; 54,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,75</t>
+          <t>0,49; 3,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 2,33</t>
+          <t>-0,37; 2,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,59</t>
+          <t>-0,49; 1,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 216,97</t>
+          <t>16,07; 233,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 218,13</t>
+          <t>-16,69; 209,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 239,38</t>
+          <t>-32,77; 244,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,61</t>
+          <t>-0,47; 3,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 0,36</t>
+          <t>-2,45; 0,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,32</t>
+          <t>0,07; 3,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 262,37</t>
+          <t>-17,78; 239,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,38; 48,57</t>
+          <t>-79,65; 32,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 340,85</t>
+          <t>-6,66; 379,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,24</t>
+          <t>0,04; 3,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,75</t>
+          <t>-1,81; 0,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 2,82</t>
+          <t>-0,02; 2,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 113,63</t>
+          <t>-0,42; 103,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-60,59; 50,09</t>
+          <t>-58,12; 53,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 322,13</t>
+          <t>-8,31; 333,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,58</t>
+          <t>0,75; 2,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,66</t>
+          <t>-0,68; 0,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,42</t>
+          <t>0,17; 1,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,47; 101,85</t>
+          <t>20,81; 103,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 49,59</t>
+          <t>-34,8; 47,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,46; 129,15</t>
+          <t>7,94; 137,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P5B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
+          <t>Población con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,99</t>
+          <t>-1,88; 3,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 0,0</t>
+          <t>-3,23; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,0</t>
+          <t>-4,28; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,87</t>
+          <t>-1,22; 2,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 0,16</t>
+          <t>-2,33; 0,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,46</t>
+          <t>-0,46; 0,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 202,13</t>
+          <t>-38,36; 194,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 54,49</t>
+          <t>-100,0; 101,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,71</t>
+          <t>0,62; 3,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,31</t>
+          <t>-0,47; 2,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,63</t>
+          <t>-0,56; 1,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,84</t>
+          <t>-0,39; 0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,07; 233,77</t>
+          <t>14,47; 220,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 209,21</t>
+          <t>-23,9; 203,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 244,89</t>
+          <t>-42,47; 255,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,07; 492,72</t>
+          <t>-59,24; 484,08</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,55</t>
+          <t>-0,28; 3,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,27</t>
+          <t>-2,45; 0,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,48</t>
+          <t>0,21; 3,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,36</t>
+          <t>-1,17; 0,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 239,22</t>
+          <t>-13,64; 240,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-79,65; 32,44</t>
+          <t>-80,86; 26,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 379,52</t>
+          <t>-0,25; 345,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,41; 437,86</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,92</t>
+          <t>0,07; 3,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,8</t>
+          <t>-1,95; 0,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 2,66</t>
+          <t>0,05; 2,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,8</t>
+          <t>-1,24; 1,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 103,56</t>
+          <t>0,27; 110,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-58,12; 53,35</t>
+          <t>-59,1; 51,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 333,41</t>
+          <t>-3,82; 282,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 85,58</t>
+          <t>-33,29; 81,17</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,65</t>
+          <t>0,81; 2,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,63</t>
+          <t>-0,66; 0,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,47</t>
+          <t>0,13; 1,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,71</t>
+          <t>-0,44; 0,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,81; 103,04</t>
+          <t>23,25; 101,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 47,48</t>
+          <t>-33,18; 47,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,94; 137,01</t>
+          <t>6,54; 127,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 83,04</t>
+          <t>-29,79; 68,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>66,31%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-64,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,85%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,1</t>
+          <t>-0,83; 2,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,0</t>
+          <t>-0,35; 0,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,0</t>
+          <t>-2,14; 0,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-0,38; 0,42</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-36,92; 185,46</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 34,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>187,82%</t>
+          <t>57,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-60,69%</t>
+          <t>43,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>72,72%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,84</t>
+          <t>0,62; 3,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,0</t>
+          <t>-0,47; 2,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,29</t>
+          <t>-0,56; 1,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,5</t>
+          <t>-0,28; 0,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 194,48</t>
+          <t>14,47; 220,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,9; 203,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 101,48</t>
+          <t>-42,47; 255,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-54,77; 666,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>62,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,71%</t>
+          <t>-47,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>43,87%</t>
+          <t>107,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>43,61%</t>
+          <t>-47,06%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,86</t>
+          <t>-0,28; 3,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,21</t>
+          <t>-2,45; 0,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,62</t>
+          <t>0,21; 3,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,86</t>
+          <t>-1,22; 0,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,47; 220,98</t>
+          <t>-13,64; 240,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 203,39</t>
+          <t>-80,86; 26,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,47; 255,16</t>
+          <t>-0,25; 345,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,24; 484,08</t>
+          <t>-94,02; 252,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,73%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,35%</t>
+          <t>-20,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>107,66%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-37,76%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,59</t>
+          <t>0,07; 3,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,26</t>
+          <t>-1,95; 0,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,4</t>
+          <t>0,05; 2,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,35</t>
+          <t>-1,43; 1,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 240,05</t>
+          <t>0,27; 110,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-80,86; 26,12</t>
+          <t>-59,1; 51,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 345,05</t>
+          <t>-3,82; 282,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-91,41; 437,86</t>
+          <t>-36,85; 77,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>59,15%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>57,2%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>13,96%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,97</t>
+          <t>0,81; 2,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,83</t>
+          <t>-0,66; 0,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,58</t>
+          <t>0,13; 1,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,73</t>
+          <t>-0,45; 0,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 110,08</t>
+          <t>23,25; 101,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-59,1; 51,37</t>
+          <t>-33,18; 47,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 282,17</t>
+          <t>6,54; 127,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,29; 81,17</t>
+          <t>-32,23; 73,7</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>59,15%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-1,66%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>57,2%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>13,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 2,62</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 0,61</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 1,39</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 0,6</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>23,25; 101,58</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-33,18; 47,75</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,54; 127,53</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-29,79; 68,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
